--- a/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-20/Sample-20.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-20/Sample-20.xlsx
@@ -8,6 +8,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$B$1:$K$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Sheet2'!$B$3:$B$13</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -136,10 +140,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="1pphpiks" xfId="1"/>
-    <cellStyle name="1pphpiks_Alternate" xfId="2"/>
-    <cellStyle name="lq5jw5zt" xfId="3"/>
-    <cellStyle name="lq5jw5zt_Alternate" xfId="4"/>
+    <cellStyle name="qeeprako" xfId="1"/>
+    <cellStyle name="qeeprako_Alternate" xfId="2"/>
+    <cellStyle name="ccpmglkh" xfId="3"/>
+    <cellStyle name="ccpmglkh_Alternate" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -152,6 +156,18 @@
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" bestFit="1" width="12.8049335479736" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="13.1027069091797" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="10.48570728302" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="13.1027069091797" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="5" t="s">
@@ -313,6 +329,8 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -324,6 +342,9 @@
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" bestFit="1" width="10.48570728302" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="B3" s="5" t="s">
@@ -381,6 +402,8 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-20/Sample-20.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-20/Sample-20.xlsx
@@ -140,10 +140,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="qeeprako" xfId="1"/>
-    <cellStyle name="qeeprako_Alternate" xfId="2"/>
-    <cellStyle name="ccpmglkh" xfId="3"/>
-    <cellStyle name="ccpmglkh_Alternate" xfId="4"/>
+    <cellStyle name="byi3cmfy" xfId="1"/>
+    <cellStyle name="byi3cmfy_Alternate" xfId="2"/>
+    <cellStyle name="ffdb3nlc" xfId="3"/>
+    <cellStyle name="ffdb3nlc_Alternate" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-20/Sample-20.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-20/Sample-20.xlsx
@@ -140,10 +140,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="byi3cmfy" xfId="1"/>
-    <cellStyle name="byi3cmfy_Alternate" xfId="2"/>
-    <cellStyle name="ffdb3nlc" xfId="3"/>
-    <cellStyle name="ffdb3nlc_Alternate" xfId="4"/>
+    <cellStyle name="lus2nqb5" xfId="1"/>
+    <cellStyle name="lus2nqb5_Alternate" xfId="2"/>
+    <cellStyle name="n4b41ado" xfId="3"/>
+    <cellStyle name="n4b41ado_Alternate" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
